--- a/data/demo/stressor_response_demo.xlsx
+++ b/data/demo/stressor_response_demo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29C331B-DBBB-421F-BBF8-4FA3B6312076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF73DDF8-EF8C-410A-AB28-B28527926417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -51,6 +51,123 @@
     <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A0743E77-40D4-4901-AAA5-2DD0B93D2A48}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Name of the stressor. This must match the stressor-response worksheet name. It must also match the Stressor column in the stressor magnitude workbook.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E3DA5574-0E3D-4E5B-B82E-1E562E19462D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Category of the stressor. Only relevant if multiple stressors are linked with a defined interaction. If there is no interaction simply copy the stressor name here.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{98B98558-D30C-4BF7-80D1-4CECC1990D33}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Interaction between stressors. Possible values right now include ‘Minimum’. Meaning that if multiple variables are linked together with ‘Minimum’ the variable with the lowest System Capacity in the Joe Model will be used and the other variables will be omitted from the Joe Model calculation. Determine which terms should be linked together by defining groups in the Linked column. Used letters A, B, C etc. to define distinct groups. If no special interaction is defined between variables then set these cells to NA.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{9BB7679F-78A4-4253-8550-6C1E13E61091}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Variable Linkages: Use NA if no interaction is defined for the target variable otherwise choose letters A, B or C to specify variable groups. For example, if there were four stressor-response curves for December, January, February, and March flows and they were encoded as three separate variables. Users could apply the Minimum function to link get the lowest system capacity across all four terms, but only have one winter flow function in the Joe Model. In this case the letter A would be used to group all these terms together.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{C7543087-9749-4D91-A286-714199533E9E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stressor Scale can be either “linear” or “log” to specify a linear or logarithmic function.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{EE5B9D30-2094-45A9-88EE-7EA069B21ACC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Either “continuous” or “step“ continuous will apply linear interpolation between values and step will adjust system capacity values in discrete steps.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{2E4844CE-A7A3-4525-B7D5-F1E0D6E95952}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Which life stage should the stressor be linked to? The default assumption in the Joe Model is that stressor-response curves are linked to “adult” system capacity. If you are not using the Population Model, then simply enter “adult” for each row. If you are making use of the Population Model then possible life stages include “egg”, “alevin”, “fry”, “parr”, “sub_adult” or “adult”. If the same variable is linked to multiple life stages with the same stressor-response curve then you may use “fry_parr”, “all_juv” or “all”. If the same environmental variable is linked to different life stages with different stressor-response curves, then it is suggested that user copy stressor values are treat them as distinct environmental variables to avoid confusion (e.g., “Temperature_adult”, “Temperature_parr”) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{A808CC5C-2F05-40F7-8CC2-CD28BA36008B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>How is the stressor-response curve linked to the life stage? Possible mechanisms include “capacity” or “survival”. “capacity” refers to the effect of reducing the system carrying capacity for that life stage (0 – 1) whereas “survival” will decrease the survivorship value of that life stage.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{E1DB0758-E4AF-4DF6-BBC8-E3AC812B1EFF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional: include units for a reminder. This column is not used in any calculations but is included as a personal reminder for convenience.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J1" authorId="0" shapeId="0" xr:uid="{D84D2624-231E-4BBF-A5E1-720456691368}">
       <text>
         <r>
@@ -60,21 +177,22 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Choose either:
-</t>
+          <t>Define which model the stressor-response curve should be applied to. Possible options include “All”, “Joe Model” or “Population Model”. This column is only relevant for cases where a stressor-response relationship is targeting the “adult” life stage, but for some reason is not applicable to either the Joe Model or Population Model.</t>
         </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>All
-Population Model
-Joe Model</t>
-        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{50094CFA-7AF4-4A1D-BAD4-B61B25869003}">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
@@ -82,8 +200,59 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>The raw value of the stressor (on the x-axis). For example, Temperature would likely be values in degrees Celsius.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{DA6FFD49-59CD-423B-9D92-9010FDC924F9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The Mean System Capacity (on the y-axis) associated with the raw environmental value on the x-axis. Note that for the population model this value may be the life-stage specific does-response curve for capacity or survival, but please leave the column name unchanged. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{093E9A02-04B2-486C-9DDE-BD9C6A204DEE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Standard Deviation (SD) used to resample the mean system capacity values based on a given stressor level. In the Joe Model simulation, environmental parameters are resampled for each batch replicate, year and HUC based on SD values in the Stressor Magnitude workbook. The response curve is also resampled continuously based on user-defined SD, lower and upper limit values. This means that a given stressor level in a given HUC will not have the same effect each year. If this value is set to zero then no resampling will take place within the stressor-response curve.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{28D8377D-BCD1-4CE2-9501-FA0E40C9F46D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lower limit for stressor-response resampling.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{E8BB0AF1-7234-4CCA-977E-5B0ACAD630EB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Upper limit for stressor-response resampling.</t>
         </r>
       </text>
     </comment>
@@ -92,7 +261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="49">
   <si>
     <t>Stressors</t>
   </si>
@@ -229,18 +398,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>ratio?</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -257,7 +414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,20 +444,13 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,12 +460,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,17 +505,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14226,7 +14370,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14261,546 +14405,536 @@
       <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>49</v>
+      <c r="J1" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="8"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="8"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="G17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="F18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="G18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="8"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="8"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16790,11 +16924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17153,6 +17287,7 @@
     <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;11&amp;K000000Classification: Protected A</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
